--- a/导表工具/F-福利面板按钮配置.xlsx
+++ b/导表工具/F-福利面板按钮配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\h10-d-zzcq\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="爵位配置" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>导出类型</t>
   </si>
@@ -72,86 +67,92 @@
   </si>
   <si>
     <t>活动名称</t>
-  </si>
-  <si>
-    <t>导出参数</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>"fuli_qiandao"</t>
-  </si>
-  <si>
-    <t>"签到"</t>
-  </si>
-  <si>
-    <t>"fuli_denglu"</t>
-  </si>
-  <si>
-    <t>"登陆奖励"</t>
-  </si>
-  <si>
-    <t>"fuli_yueka"</t>
-  </si>
-  <si>
-    <t>"元宝月卡"</t>
-  </si>
-  <si>
-    <t>"fuli_tequan"</t>
-  </si>
-  <si>
-    <t>"特权月卡"</t>
-  </si>
-  <si>
-    <t>"fuli_gonggao"</t>
-  </si>
-  <si>
-    <t>"公告"</t>
-  </si>
-  <si>
-    <t>"fuli_jihuoma"</t>
-  </si>
-  <si>
-    <t>"激活码"</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>活动id
 根据id索引对应的奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出参数</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>activityId</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btnqiandao"</t>
+  </si>
+  <si>
+    <t>"签到"</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btnjiangli"</t>
+  </si>
+  <si>
+    <t>"登陆奖励"</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btnyuanbaoyueka"</t>
+  </si>
+  <si>
+    <t>"元宝月卡"</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btntequanyueka"</t>
+  </si>
+  <si>
+    <t>"特权月卡"</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btngonggao"</t>
+  </si>
+  <si>
+    <t>"公告"</t>
+  </si>
+  <si>
+    <t>"new_fuli_denglujiangli_btnjihuoma"</t>
+  </si>
+  <si>
+    <t>"激活码"</t>
+  </si>
+  <si>
+    <t>"qianghongbaobtn_png"</t>
+  </si>
+  <si>
+    <t>"抢红包"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -162,7 +163,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +171,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +179,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,14 +187,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +200,6 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,18 +207,162 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,13 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79976805932798245"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,8 +393,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -306,10 +631,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
@@ -370,6 +937,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,28 +952,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="怪物属性计算表"/>
@@ -437,7 +1048,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -752,23 +1363,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -776,7 +1387,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -806,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -817,14 +1428,14 @@
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="26.25" customHeight="1" spans="1:7">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -839,66 +1450,66 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="F7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="22"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>21</v>
+      <c r="C8" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -908,16 +1519,16 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="22"/>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -927,16 +1538,16 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>25</v>
+      <c r="C10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -946,15 +1557,15 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>27</v>
+      <c r="C11" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -963,16 +1574,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="22"/>
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>29</v>
+      <c r="C12" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -984,16 +1595,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>31</v>
+      <c r="C13" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -1003,395 +1614,406 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="C15" s="22"/>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="22"/>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="22"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="22"/>
       <c r="C22" s="1"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="22"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="22"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="22"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21"/>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="22"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="22"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="22"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="22"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21"/>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="22"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="22"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="22"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="22"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21"/>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="22"/>
       <c r="C42" s="1"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" customHeight="1" spans="3:4">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" customHeight="1" spans="3:4">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" customHeight="1" spans="3:4">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" customHeight="1" spans="3:4">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" customHeight="1" spans="3:4">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" customHeight="1" spans="3:4">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" customHeight="1" spans="3:4">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" customHeight="1" spans="3:4">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" customHeight="1" spans="3:4">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" customHeight="1" spans="3:4">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" customHeight="1" spans="3:4">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" customHeight="1" spans="3:4">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" customHeight="1" spans="3:4">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" customHeight="1" spans="3:4">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" customHeight="1" spans="3:4">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" customHeight="1" spans="3:4">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" customHeight="1" spans="3:4">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" customHeight="1" spans="3:4">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" customHeight="1" spans="3:4">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" customHeight="1" spans="3:4">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" customHeight="1" spans="3:4">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" customHeight="1" spans="3:4">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" customHeight="1" spans="3:4">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" customHeight="1" spans="3:4">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" customHeight="1" spans="3:4">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" customHeight="1" spans="3:4">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" customHeight="1" spans="3:4">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" customHeight="1" spans="3:4">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" customHeight="1" spans="3:4">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" customHeight="1" spans="3:4">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" customHeight="1" spans="3:4">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" customHeight="1" spans="3:4">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" customHeight="1" spans="3:4">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" customHeight="1" spans="3:4">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" customHeight="1" spans="3:4">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" customHeight="1" spans="3:4">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" customHeight="1" spans="3:4">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" customHeight="1" spans="3:4">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" customHeight="1" spans="3:4">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" customHeight="1" spans="3:4">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" customHeight="1" spans="3:4">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" customHeight="1" spans="3:4">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" customHeight="1" spans="3:4">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" customHeight="1" spans="3:4">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" customHeight="1" spans="3:4">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" customHeight="1" spans="3:4">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" customHeight="1" spans="3:4">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" customHeight="1" spans="3:4">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="3:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/导表工具/F-福利面板按钮配置.xlsx
+++ b/导表工具/F-福利面板按钮配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="爵位配置" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -219,14 +219,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,51 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -292,75 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -395,13 +395,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,169 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,8 +634,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -652,6 +654,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,34 +700,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,8 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,148 +734,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1372,14 +1372,14 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
